--- a/loto.xlsx
+++ b/loto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FE16D-BBB2-4D12-96C5-23DD4D4718A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B00668F-055E-4800-8054-B2099FF2E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G711"/>
+  <dimension ref="A1:G714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="E684" sqref="E684"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="D718" sqref="D718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16776,6 +16776,75 @@
         <v>35</v>
       </c>
     </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B712" s="2">
+        <v>45</v>
+      </c>
+      <c r="C712" s="2">
+        <v>8</v>
+      </c>
+      <c r="D712" s="2">
+        <v>12</v>
+      </c>
+      <c r="E712" s="2">
+        <v>41</v>
+      </c>
+      <c r="F712" s="2">
+        <v>35</v>
+      </c>
+      <c r="G712" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B713" s="2">
+        <v>33</v>
+      </c>
+      <c r="C713" s="2">
+        <v>39</v>
+      </c>
+      <c r="D713" s="2">
+        <v>46</v>
+      </c>
+      <c r="E713" s="2">
+        <v>4</v>
+      </c>
+      <c r="F713" s="2">
+        <v>26</v>
+      </c>
+      <c r="G713" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B714" s="2">
+        <v>3</v>
+      </c>
+      <c r="C714" s="2">
+        <v>21</v>
+      </c>
+      <c r="D714" s="2">
+        <v>40</v>
+      </c>
+      <c r="E714" s="2">
+        <v>26</v>
+      </c>
+      <c r="F714" s="2">
+        <v>16</v>
+      </c>
+      <c r="G714" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
